--- a/03_画面设计模板/CG_采购/采购订单登记参照画面.xlsx
+++ b/03_画面设计模板/CG_采购/采购订单登记参照画面.xlsx
@@ -101,6 +101,82 @@
         <a:xfrm>
           <a:off x="685800" y="171450"/>
           <a:ext cx="13009525" cy="6933334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417763</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>75676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7543800"/>
+          <a:ext cx="10704763" cy="4190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>560877</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>65960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12172950"/>
+          <a:ext cx="8790477" cy="5723810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
